--- a/xlsx/雪铁龙DS_intext.xlsx
+++ b/xlsx/雪铁龙DS_intext.xlsx
@@ -29,7 +29,7 @@
     <t>雪铁龙</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_雪铁龙DS</t>
+    <t>政策_政策_混合动力车辆_雪铁龙DS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E7%93%9C%E7%88%BE%E8%BF%AA</t>
   </si>
   <si>
-    <t>曼瓜爾迪</t>
+    <t>曼瓜尔迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>汽車設計</t>
+    <t>汽车设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BF%E8%BD%A6</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>旅行車</t>
+    <t>旅行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%9E%E7%AF%B7%E8%BD%A6</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BD%AE%E5%89%8D%E9%A9%85</t>
   </si>
   <si>
-    <t>中置前驅</t>
+    <t>中置前驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>手動變速器</t>
+    <t>手动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E8%87%AA%E5%8A%A8%E5%8F%98%E9%80%9F%E5%99%A8</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/DS%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>DS汽車</t>
+    <t>DS汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>巴黎車展</t>
+    <t>巴黎车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%B0%E8%80%85</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%89%8D%E9%A9%85</t>
   </si>
   <si>
-    <t>前置前驅</t>
+    <t>前置前驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AC%E5%90%91%E4%B8%8D%E8%B6%B3</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9E%8B%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>經濟型汽車</t>
+    <t>经济型汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%B9%B3%E5%AF%B9%E7%BD%AE%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%AA%E5%85%8B%E7%88%BE%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>汪克爾引擎</t>
+    <t>汪克尔引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E6%84%9F%E7%A5%9E%E6%8E%A2</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8DDS3</t>
   </si>
   <si>
-    <t>雪鐵龍DS3</t>
+    <t>雪铁龙DS3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99C4</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8DM35</t>
   </si>
   <si>
-    <t>雪鐵龍M35</t>
+    <t>雪铁龙M35</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99Xsara</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8DGT</t>
   </si>
   <si>
-    <t>雪鐵龍GT</t>
+    <t>雪铁龙GT</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99Xsara_WRC</t>
